--- a/scrape_output1.xlsx
+++ b/scrape_output1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,1850 +473,925 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Jordan Eaglestone</t>
+          <t>Moritz Klämt</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/sales/lead/ACwAACKqIO0BfSA9mU7ea23zRwR5L0LObIgol1U,NAME_SEARCH,OVX3</t>
+          <t>https://www.linkedin.com/sales/lead/ACwAAAwI9mcBmkPhYrBNy_z-hLB5BPvt0NRGvNk,NAME_SEARCH,070u</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Head Of Ecommerce &amp; Marketing</t>
+          <t>Corporate Vice President Global Media &amp; Digital Marketing HCB</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Hawes and Curtis</t>
+          <t>Henkel</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/sales/company/1567287</t>
+          <t>https://www.linkedin.com/sales/company/258644</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Sevenoaks, England, United Kingdom</t>
+          <t>Greater Hamburg Area</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>6/23/2024</t>
+          <t>7/2/2024</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sarah de Forceville</t>
+          <t>Antonio Sena, MBA</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/sales/lead/ACwAABhLnYABlGZEn_3-99CkgracseDvvyweaFo,NAME_SEARCH,2_tB</t>
+          <t>https://www.linkedin.com/sales/lead/ACwAAAWXYLgBporgqHjOABaHVMHjxIDE_NBrXPs,NAME_SEARCH,fX8s</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Directrice E-commerce</t>
+          <t>NULL</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Isotoner France</t>
+          <t>NULL</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/sales/company/55057276</t>
+          <t>NULL</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Greater Paris Metropolitan Region</t>
+          <t>Los Angeles Metropolitan Area</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>6/23/2024</t>
+          <t>7/2/2024</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Rebecca Armstrong</t>
+          <t>Rajeev B.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/sales/lead/ACwAAA1-8OcBYOyJ4ewtLTRGySGx4_i59a1ivcE,NAME_SEARCH,KLCD</t>
+          <t>https://www.linkedin.com/sales/lead/ACwAAARl3EwBORu3J2FUAzTf64be1RLsTTG2D3g,NAME_SEARCH,9Ya4</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Director of Ecommerce</t>
+          <t>Head Ecommerce</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Credo Beauty</t>
+          <t>Aditya Birla Fashion and Retail Ltd.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/sales/company/10695976</t>
+          <t>https://www.linkedin.com/sales/company/164809</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Jersey City, New Jersey, United States</t>
+          <t>Bengaluru, Karnataka, India</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>6/23/2024</t>
+          <t>7/2/2024</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Chelsea Kenney</t>
+          <t>Alessandro Villa, CMX</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/sales/lead/ACwAAA1udaIBAatGmdyj67s6aAzq-ts1oLHrd5w,NAME_SEARCH,H6KJ</t>
+          <t>https://www.linkedin.com/sales/lead/ACwAAAHSTw8B-AcAiZRClOnWTafU257OfHngpjs,NAME_SEARCH,Bepf</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Director of Ecommerce</t>
+          <t>Global eCommerce Lead</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Lacrosse Unlimited</t>
+          <t>Viatris</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/sales/company/1552040</t>
+          <t>https://www.linkedin.com/sales/company/52143761</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ronkonkoma, New York, United States</t>
+          <t>Milan, Lombardy, Italy</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>6/23/2024</t>
+          <t>7/2/2024</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Laura Glover</t>
+          <t>Rolando Armando Lopez Vazquez</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/sales/lead/ACwAAAnS2yQBjVrdDT-QrLL1LtrIZGXgl2Y0vOc,NAME_SEARCH,Gvt4</t>
+          <t>https://www.linkedin.com/sales/lead/ACwAAAiQulEB2xq0Fio9iDENRa2nT98dcY4RfHM,NAME_SEARCH,YSTq</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Head of Ecommerce</t>
+          <t>Ecommerce &amp; Omnichannel Director</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Anthropologie Europe</t>
+          <t>Gran Chapur</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/sales/company/513679</t>
+          <t>https://www.linkedin.com/sales/company/1986792</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>London, England, United Kingdom</t>
+          <t>Tlalpan, Mexico City, Mexico</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>6/23/2024</t>
+          <t>7/2/2024</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Mariette Rieusset</t>
+          <t>Ronald Mulder</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/sales/lead/ACwAAASyARIBMMnBUV94Yu48ENFHlCh0sWD3EBE,NAME_SEARCH,BaYF</t>
+          <t>https://www.linkedin.com/sales/lead/ACwAAARQcEQBxf0XMWPdqZaAaufuut1LmlHvZyo,NAME_SEARCH,EV5e</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Head of ecommerce &amp; Paid Media</t>
+          <t>Head of eCommerce Europe &amp; Global Amazon Lead</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Diptyque Paris</t>
+          <t>GP Batteries</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/sales/company/2998033</t>
+          <t>https://www.linkedin.com/sales/company/82072</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Paris, Île-de-France, France</t>
+          <t>Venlo, Limburg, Netherlands</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>6/23/2024</t>
+          <t>7/2/2024</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Pierre Dassonneville</t>
+          <t>Eva Perozo Guedez</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/sales/lead/ACwAAAPuEsEBZG0MENvaFBbNNs7HFXM3qslUabs,NAME_SEARCH,3h-2</t>
+          <t>https://www.linkedin.com/sales/lead/ACwAAAykxZkBAuWV4VJ4EFR1CHOfFq2lIwuELHs,NAME_SEARCH,caR4</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Head of Ecommerce</t>
+          <t>Ecommerce &amp; Digital Manager</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>JD Sports Fashion</t>
+          <t>Intersport España</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/sales/company/339858</t>
+          <t>https://www.linkedin.com/sales/company/2313804</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Amsterdam, North Holland, Netherlands</t>
+          <t>Greater Barcelona Metropolitan Area</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>6/23/2024</t>
+          <t>7/2/2024</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Michael Dinnerman, MBA</t>
+          <t>Russell Erni</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/sales/lead/ACwAAALVi-IBqhy-Mt2MPieB2qWqVVp5ZaoG0B4,NAME_SEARCH,TQmv</t>
+          <t>https://www.linkedin.com/sales/lead/ACwAAAC6aEQBvyPe0LNCnvCKaV1A5GCPSpeKRRE,NAME_SEARCH,W84k</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Sr. Director, eCommerce</t>
+          <t>Senior Manager, Marketing - Brand Lead and Ecommerce Customer Service Head | Sports Central</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Fanatics</t>
+          <t>SM Retail</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/sales/company/68543</t>
+          <t>https://www.linkedin.com/sales/company/9464400</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Fort Lauderdale, Florida, United States</t>
+          <t>Metro Manila, National Capital Region, Philippines</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>6/23/2024</t>
+          <t>7/2/2024</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Beth Simon</t>
+          <t>Tara Benyousky</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/sales/lead/ACwAAACpSbgBTv7VzevJEfF8mkxS6rdxeFNrFVI,NAME_SEARCH,JPR7</t>
+          <t>https://www.linkedin.com/sales/lead/ACwAAABcjUIB2S5LSST1lYWrd_6e5mP3K1gme0Q,NAME_SEARCH,wNrE</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Director Of Ecommerce</t>
+          <t>Authentic Fractional CMO Peer Advisor™</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Sam Edelman</t>
+          <t>Authentic®</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/sales/company/250101</t>
+          <t>https://www.linkedin.com/sales/company/16216893</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>New York, New York, United States</t>
+          <t>Greater Chicago Area</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>6/23/2024</t>
+          <t>7/2/2024</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Jennifer Hernandez</t>
+          <t>Marco Mazzilli</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/sales/lead/ACwAABz2OTYBmWxNcQGlOQLjMlrR8ULfTfgE4yU,NAME_SEARCH,borw</t>
+          <t>https://www.linkedin.com/sales/lead/ACwAAA5uEU8BLvakavrxD8WQK774atQAqKgo4Sk,NAME_SEARCH,tZRB</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Director of Ecommerce</t>
+          <t>Head of Digital EMEA</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>CHEVIGNON</t>
+          <t>Venchi</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/sales/company/2609373</t>
+          <t>https://www.linkedin.com/sales/company/2357255</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>New York, New York, United States</t>
+          <t>Milan, Lombardy, Italy</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>6/23/2024</t>
+          <t>7/2/2024</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Ilana Cohen</t>
+          <t>Cooper Chien, MBA, PMP, ex-Amazon</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/sales/lead/ACwAAAiLUE8Byv_QBwSZiRyn-Fdn8yeZkZG6FEQ,NAME_SEARCH,fm3G</t>
+          <t>https://www.linkedin.com/sales/lead/ACwAAAkqFNIBW1s019JRe1yt9tc7yb0__NXzyC8,NAME_SEARCH,nfb-</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Senior Director of Ecommerce and Digital Marketing</t>
+          <t>VP of IT (Leading IT, Cybersecurity and Digital initiatives)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Living Proof, Inc.</t>
+          <t>Amyris</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/sales/company/357213</t>
+          <t>https://www.linkedin.com/sales/company/28434</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Boston, Massachusetts, United States</t>
+          <t>San Jose, California, United States</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>6/23/2024</t>
+          <t>7/2/2024</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Mea Chavez Christie, MBA</t>
+          <t>Gareth Jones</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/sales/lead/ACwAAAG25lMBNFh8hfO_yQn5OAPcwjcNI2K7sls,NAME_SEARCH,FJO9</t>
+          <t>https://www.linkedin.com/sales/lead/ACwAAACdEU8BP88tR1L0fJdVvOQd6djvtC7SOsg,NAME_SEARCH,_Ma6</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Director of Ecommerce</t>
+          <t>Ecommerce Consultant</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>True Classic</t>
+          <t>NULL</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/sales/company/53419951</t>
+          <t>NULL</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>San Francisco Bay Area</t>
+          <t>Hove, England, United Kingdom</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>6/23/2024</t>
+          <t>7/2/2024</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ashley Kick</t>
+          <t>Amandine Multin</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/sales/lead/ACwAAAGWT8UBTGUspGYpkcthPpDT1_PGI_aDGhE,NAME_SEARCH,fe11</t>
+          <t>https://www.linkedin.com/sales/lead/ACwAAAI3mKEBEa09wEFufv2hzVL6iTfV6SSVQTU,NAME_SEARCH,T1TG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Sr. Director of Ecommerce | Digital Marketing at DÔEN</t>
+          <t>Fondatrice &amp; Consultante indépendante</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Dôen</t>
+          <t>Digitalissime.</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/sales/company/18320650</t>
+          <t>https://www.linkedin.com/sales/company/103824066</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Los Angeles, California, United States</t>
+          <t>Paris, Île-de-France, France</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>6/23/2024</t>
+          <t>7/2/2024</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Elena L.</t>
+          <t>Rolf Orth</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/sales/lead/ACwAAAEkIG4B3B2nTfcTc6TaxGv0s6ZvLXMOgFY,NAME_SEARCH,2joC</t>
+          <t>https://www.linkedin.com/sales/lead/ACwAAC112lcBu8F3D1uGmqDqFnQ3UVqG6g8bvh0,NAME_SEARCH,8bUW</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Ecommerce 360</t>
+          <t>Geschäftsführer</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>L’OCCITANE Group</t>
+          <t>dreifive</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/sales/company/164659</t>
+          <t>https://www.linkedin.com/sales/company/11775887</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Rockville Centre, New York, United States</t>
+          <t>Greater Munich Metropolitan Area</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>6/23/2024</t>
+          <t>7/2/2024</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Stacey Kadden</t>
+          <t>Sherry Thomson</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/sales/lead/ACwAAAD6bl0BmItPeQSHtzbguPRckem_IglE6jE,NAME_SEARCH,LeJ6</t>
+          <t>https://www.linkedin.com/sales/lead/ACwAAAAwRcoBYooLkbn7mm9IPm0CESgIagWvbeI,NAME_SEARCH,wce6</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Director eCommerce</t>
+          <t>Senior eCommerce Customer Service Manager</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Owens &amp; Minor</t>
+          <t>Yummie</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/sales/company/1629</t>
+          <t>https://www.linkedin.com/sales/company/1177757</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>San Ramon, California, United States</t>
+          <t>Atlanta, Georgia, United States</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>6/23/2024</t>
+          <t>7/2/2024</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Raphael Faccarello</t>
+          <t>Brendan Gardner-Young</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/sales/lead/ACwAAAOjFO8BOkj2w0xIstwSKJf2wPVk5Od0auE,NAME_SEARCH,SQ0d</t>
+          <t>https://www.linkedin.com/sales/lead/ACwAAAYc0S0Bk_EmH1mKbNY5o60dqyYTrRlNQVc,NAME_SEARCH,X2MX</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Head Of Ecommerce &amp; Digital</t>
+          <t>Chief Technology Officer</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Yon-Ka Paris USA</t>
+          <t>Thrive Causemetics Inc.</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/sales/company/1120669</t>
+          <t>https://www.linkedin.com/sales/company/3827104</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>New York, New York, United States</t>
+          <t>Los Angeles, California, United States</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>6/23/2024</t>
+          <t>7/2/2024</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Lisa Safdieh</t>
+          <t>Jie Cheng （程捷）</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/sales/lead/ACwAAAHbl0cBJksU1D91lyurTNCtt9vrMmVtUes,NAME_SEARCH,uu_j</t>
+          <t>https://www.linkedin.com/sales/lead/ACwAAAKwg2UB-HR4-Gc-oPnu8xuj1dKG4nQ1hlw,NAME_SEARCH,zqRj</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Senior Director of Ecommerce and Digital Marketing</t>
+          <t>Global VP &amp; Head of Digital Commerce</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Sam Edelman</t>
+          <t>Mondelēz International</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/sales/company/250101</t>
+          <t>https://www.linkedin.com/sales/company/1511</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>New York, New York, United States</t>
+          <t>Chicago, Illinois, United States</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>6/23/2024</t>
+          <t>7/2/2024</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Benjamin Curtis</t>
+          <t>Rachel Frederick</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/sales/lead/ACwAAAGBbywBtE7YOVLry0KFyx00AOmNonwfG5c,NAME_SEARCH,Y0j_</t>
+          <t>https://www.linkedin.com/sales/lead/ACwAAAA0RrMB0e_kPFPBS3xJlIOaC-BRFG4_3_w,NAME_SEARCH,fNCO</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Director Of Ecommerce</t>
+          <t>VP &amp; GM, eCommerce</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Oliver Bonas</t>
+          <t>Sur La Table</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/sales/company/2730509</t>
+          <t>https://www.linkedin.com/sales/company/17023</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Chessington, England, United Kingdom</t>
+          <t>San Francisco, California, United States</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>6/23/2024</t>
+          <t>7/2/2024</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Kevin Barnes</t>
+          <t>Rupesh Sanghavi</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/sales/lead/ACwAAAFnXQEB8XnGnz1rKWxeM0WmJ1YCcPwawrM,NAME_SEARCH,yq0K</t>
+          <t>https://www.linkedin.com/sales/lead/ACwAAADsxf8BdlqjdB0kLg_dELiXY2ZvuLQWpnA,NAME_SEARCH,UVUO</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Director of Ecommerce &amp; Customer Services</t>
+          <t>Founder &amp; CEO</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Office Shoes</t>
+          <t>Ergode</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/sales/company/635879</t>
+          <t>https://www.linkedin.com/sales/company/1967725</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>London, England, United Kingdom</t>
+          <t>Houston, Texas, United States</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>6/23/2024</t>
+          <t>7/2/2024</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Mary Secondo</t>
+          <t>Michael Margolies</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/sales/lead/ACwAAAuRNA0B-dZFxFxCzmqieqUz05Me1iinkTE,NAME_SEARCH,X2_L</t>
+          <t>https://www.linkedin.com/sales/lead/ACwAAAA0i7YBSTl0DtcwhVayhs0zhsgZBh2xWIY,NAME_SEARCH,6S66</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Senior Director of Ecommerce</t>
+          <t>Fractional CMO, SVP/VP Creative and Marketing Operations</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Westman Atelier</t>
+          <t>OnConferences</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/sales/company/12635611</t>
+          <t>https://www.linkedin.com/sales/company/18122796</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>New York City Metropolitan Area</t>
+          <t>Joplin Metropolitan Area</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>6/23/2024</t>
+          <t>7/2/2024</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Martin Bell</t>
+          <t>Jason Greenwood</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/sales/lead/ACwAAAL_FeoB8Y3sV4Pa5x3W-wxXlkcoof7oH40,NAME_SEARCH,Q9Oc</t>
+          <t>https://www.linkedin.com/sales/lead/ACwAAAOLEHYB1t8HoQs98uKOTH-kv_VnBqRM79o,NAME_SEARCH,n_89</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Director of Ecommerce</t>
+          <t>Founder &amp; Lead Consultant</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ELEMIS</t>
+          <t>Greenwood Consulting</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/sales/company/101088</t>
+          <t>https://www.linkedin.com/sales/company/13704363</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>St Albans, England, United Kingdom</t>
+          <t>Puebla, Mexico</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>6/23/2024</t>
+          <t>7/2/2024</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Amanda Bennette</t>
+          <t>Ermelinda La Montagna</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/sales/lead/ACwAAAKbpcEBrf4uIRoPCl2I7_YM9nzK5kBjS20,NAME_SEARCH,TuVQ</t>
+          <t>https://www.linkedin.com/sales/lead/ACwAAAVzKkIBEdG_8sV5ieN9WSAkfs4SZMwxBow,NAME_SEARCH,954a</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Senior Director, Ecommerce &amp; Digital Product Management</t>
+          <t>Professore universitario</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Reformation</t>
+          <t>Antony Morato</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/sales/company/2713586</t>
+          <t>https://www.linkedin.com/sales/company/2469757</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Greater Naples Metropolitan Area</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>6/23/2024</t>
+          <t>7/2/2024</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Kate Hurrell</t>
+          <t>Rhea Fox</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/sales/lead/ACwAAAJZzDkBqzWrL60wyhk-EWM72lHizyH14gI,NAME_SEARCH,hyIW</t>
+          <t>https://www.linkedin.com/sales/lead/ACwAAAIPgp0BIul_ibRDbfOaFgpZTRFKpCfW-uA,NAME_SEARCH,LYi1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Head Of Ecommerce</t>
+          <t>Digital Director</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Victoria Beckham</t>
+          <t>Ted Baker</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/sales/company/9175724</t>
+          <t>https://www.linkedin.com/sales/company/38129</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>London, England, United Kingdom</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>6/23/2024</t>
+          <t>7/2/2024</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Aurelie Lemaire</t>
+          <t>Dan Parker</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/sales/lead/ACwAAAFmJxIBqzqhNj8FGRS7whPcbIH8Qjn9oZc,NAME_SEARCH,0xJY</t>
+          <t>https://www.linkedin.com/sales/lead/ACwAAAoglQABuLvYEG47919Yz5nLCzy2qGX2_2M,NAME_SEARCH,4nbx</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Director Of Ecommerce</t>
+          <t>CEO</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>RIMOWA</t>
+          <t>Sound Decisions</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/sales/company/2111459</t>
+          <t>https://www.linkedin.com/sales/company/18979308</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Greater Paris Metropolitan Region</t>
+          <t>Irvine, California, United States</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>6/23/2024</t>
+          <t>7/2/2024</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Matthew Henton</t>
+          <t>Mark Nemery</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/sales/lead/ACwAAAAs_SsBxsnSv9IKuOqgmQf92w2wsASPtGg,NAME_SEARCH,-FB8</t>
+          <t>https://www.linkedin.com/sales/lead/ACwAAADKUaQBIN0EsO75klWu5rlOFpgCjx1gTzE,NAME_SEARCH,eVT4</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Head of Ecommerce</t>
+          <t>Vice President - Products &amp; eCommerce Merchandising</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Moss</t>
+          <t>NULL</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/sales/company/823079</t>
+          <t>NULL</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Greater London, England, United Kingdom</t>
+          <t>Oviedo, Florida, United States</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>6/23/2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Sue McKenzie</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/sales/lead/ACwAACKIhX0Bxlm16OfGkpsFP9wpsSH9-2MLcyY,NAME_SEARCH,c1rF</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Director of Ecommerce &amp; Growth</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>AERIN</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/sales/company/3354617</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>New York, New York, United States</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>6/23/2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Kaitlyn Seigler</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/sales/lead/ACwAAAgbapQBPSFzPCttCEW5VT7_cjdHc4uBD_Q,NAME_SEARCH,RDJl</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Director Of Ecommerce</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>IPPOLITA</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/sales/company/699914</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>New York City Metropolitan Area</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>6/23/2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Samantha Leonardo</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/sales/lead/ACwAABT-C2sBsV-e9nhdXSToYcEILKmaZYhQ2wM,NAME_SEARCH,2QKI</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Director of Ecommerce</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Milk Makeup</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/sales/company/10639070</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>New York, New York, United States</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>6/23/2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Natalie H.</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/sales/lead/ACwAAAkkzUQBFYUuRGTRnhVT9INe_twvgg8GgLM,NAME_SEARCH,r-lG</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Director Of Ecommerce</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Ring Concierge</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/sales/company/5048656</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>New York, New York, United States</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>6/23/2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Marilee Clark</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/sales/lead/ACwAAAKJWFwBoV94cjipTlVkgv84DdreiQGz39E,NAME_SEARCH,3Ew2</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Director of Ecommerce &amp; Digital Marketing</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>RéVive Skincare</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/sales/company/340162</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>New York, New York, United States</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>6/23/2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Inga Ivaskeviciene</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/sales/lead/ACwAAAB0DdEB225_PlGnx2aMK2v-vPj8FSHmcyE,NAME_SEARCH,sJN0</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Director, eCommerce Technology</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Living Proof, Inc.</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/sales/company/357213</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>6/23/2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Kellen Fitzgerald</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/sales/lead/ACwAAAmv9bwBvjyDyTsFmiSu63nZ67xQR3IOc9k,NAME_SEARCH,EEEv</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Senior Director of Ecommerce &amp; Digital Experience</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Glow Recipe</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/sales/company/10407471</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>New York City Metropolitan Area</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>6/23/2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Kyle Stone</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/sales/lead/ACwAAAC_s3YBHsa83sMCbK9XnHTz_Wv2ISEW94M,NAME_SEARCH,LQb1</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Director Of Ecommerce &amp; Web Operations</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Jean Dousset</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/sales/company/2103222</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>San Francisco Bay Area</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>6/23/2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Sarah Rachmiel</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/sales/lead/ACwAAAXYYCcBYfl9E9yNnN1yPKM04COsVe6rN88,NAME_SEARCH,d9t8</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Senior Director, Home eCommerce</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Walmart eCommerce</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/sales/company/2646</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>New York, New York, United States</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>6/23/2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Eva Valentova</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/sales/lead/ACwAABP5HPgB3o1tDiPo_NhsOE8pF5IK4IiheVk,NAME_SEARCH,2o_n</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Director of International Ecommerce</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>SKIMS</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/sales/company/19264966</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>United Kingdom</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>6/23/2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Sasha Y. Infante</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/sales/lead/ACwAAAL7D3sBj8H_5KnaP2BI8j__ZxbK8aigPb4,NAME_SEARCH,AmXS</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Senior Director of Ecommerce</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>JR Cigar</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/sales/company/547179</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>New York, New York, United States</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>6/23/2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Samantha Levy</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/sales/lead/ACwAAAaXp6sBmvQHSweiBz7iZV1yTndomz057FQ,NAME_SEARCH,rkoo</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Director of Ecommerce</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>HELMUT LANG</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/sales/company/1206276</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>New York City Metropolitan Area</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>6/23/2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Josh Troy</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/sales/lead/ACwAAAFKCawBR-19ASSoKnS2fYDNndGEtV3AhF0,NAME_SEARCH,5Krs</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Director of Ecommerce</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Stila Cosmetics</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/sales/company/43297</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Los Angeles County, California, United States</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>6/23/2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Krystina Banahasky</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/sales/lead/ACwAAAL76P0BRRw51GO2V_lshJlQSH1MFK982hw,NAME_SEARCH,lAPy</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Head of Ecommerce</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>The Museum of Modern Art</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/sales/company/11249</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>New York, New York, United States</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>6/23/2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Shelby King</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/sales/lead/ACwAAAiTVw4B6Ibx3ZNquxgAW6ZeNMmPqdbuq2g,NAME_SEARCH,DDOC</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Sr. Director of Ecommerce, Americas</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Dr. Martens plc</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/sales/company/1333212</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Los Angeles, California, United States</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>6/23/2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Edouard Madec</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/sales/lead/ACwAAATY1uQBvD8JCOK1KxGmZvCyCfh_AJRQ4qY,NAME_SEARCH,A2ch</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Director of Ecommerce</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Groupe Clarins</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/sales/company/10116</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>New York, New York, United States</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>6/23/2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Scott Hill</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/sales/lead/ACwAAAa5khYBwqOxYBfSpOfD2iwkAXDImSa6V0w,NAME_SEARCH,BBoq</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Director of E-Commerce</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>'47</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/sales/company/1415096</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Marlborough, Massachusetts, United States</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>6/23/2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Steve Lovell</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/sales/lead/ACwAAAEENLEBL9esSCmSzVsShh-0fKOykgu7uSI,NAME_SEARCH,nICc</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Chief Operating Officer</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>IT'SUGAR</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/sales/company/1424578</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Fort Lauderdale, Florida, United States</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>6/23/2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Ryan Green</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/sales/lead/ACwAAACAlM8BhRFmW8WC2G-Q_DHODXIalXjVlzs,NAME_SEARCH,0Zv4</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Sr Director of Ecommerce</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>TravisMathew</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/sales/company/712597</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Newport Beach, California, United States</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>6/23/2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Neil Du Plessis</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/sales/lead/ACwAAAnFcu4BY5EoYFYXhWciEGr6ydG4HkWd1zc,NAME_SEARCH,SIfu</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Director of Ecommerce</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Lovisa Pty Ltd</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/sales/company/1081011</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Los Angeles, California, United States</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>6/23/2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Harry Roth</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/sales/lead/ACwAAA_HirQB5fnVHUuCQYDmdOOz8hNQ1SkPjbc,NAME_SEARCH,qKNO</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Director of Ecommerce</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Fair Harbor</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/sales/company/4862927</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Brooklyn, New York, United States</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>6/23/2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Tommy Mathew</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/sales/lead/ACwAAANMIO0BhK51zg9SFFId2qbsrNFUP3HWEkg,NAME_SEARCH,L6VV</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Vice President of Global Ecommerce</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Alexander Wang LLC</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/sales/company/1292486</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>New York, New York, United States</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>6/23/2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Jocelyn Nagy</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/sales/lead/ACwAAAQi5YsBK787UqLmqQTD02IEHd1OdCk12LI,NAME_SEARCH,sTyq</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Director Of Ecommerce</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Tommy Hilfiger</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/sales/company/5826</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>6/23/2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Alex T.</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/sales/lead/ACwAAAaeOrwBEBQrpNPyJyrapeAM-mSuECIPt_E,NAME_SEARCH,bj3Y</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Director of Ecommerce &amp; Growth</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Wolf &amp; Shepherd</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/sales/company/4795366</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>6/23/2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Jessica D.</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/sales/lead/ACwAAAXk93EBDuYOkC1VgIM9x9I_CVL0n-1b39M,NAME_SEARCH,cE27</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Director of E-Commerce</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Anastasia Beverly Hills</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/sales/company/2126850</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>New York, New York, United States</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>6/23/2024</t>
+          <t>7/2/2024</t>
         </is>
       </c>
     </row>
